--- a/cam2_validation.xlsx
+++ b/cam2_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5664B0-2D77-40E5-9092-DC9F696C3204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A34E66-201E-4B8F-91C1-0BF3241DD7C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36266" yWindow="3514" windowWidth="7774" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="3600" windowWidth="17717" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -350,20 +350,20 @@
   <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>854.64200000000005</v>
+        <v>940.52800000000002</v>
       </c>
       <c r="B1" s="1">
-        <v>1019.249</v>
+        <v>1019.168</v>
       </c>
       <c r="C1" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,193 +372,193 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>875.84100000000001</v>
+        <v>974.19399999999996</v>
       </c>
       <c r="B2" s="1">
-        <v>1777.9649999999999</v>
+        <v>1793.377</v>
       </c>
       <c r="C2" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.07</v>
+        <v>-15.93</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>870.91600000000005</v>
+        <v>967.72199999999998</v>
       </c>
       <c r="B3" s="1">
-        <v>1673.0730000000001</v>
+        <v>1697.279</v>
       </c>
       <c r="C3" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-13.95</v>
+        <v>-14.02</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>866.72500000000002</v>
+        <v>961.42200000000003</v>
       </c>
       <c r="B4" s="1">
-        <v>1575.9059999999999</v>
+        <v>1597.1289999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.93</v>
+        <v>-12</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>863.48099999999999</v>
+        <v>956.20899999999995</v>
       </c>
       <c r="B5" s="1">
-        <v>1480.8979999999999</v>
+        <v>1499.7429999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.93</v>
+        <v>-10</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>860.44399999999996</v>
+        <v>951.48400000000004</v>
       </c>
       <c r="B6" s="1">
-        <v>1386.8679999999999</v>
+        <v>1401.5150000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.93</v>
+        <v>-8.1</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>858.25</v>
+        <v>947.452</v>
       </c>
       <c r="B7" s="1">
-        <v>1293.81</v>
+        <v>1301.2070000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.93</v>
+        <v>-6</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>856.26800000000003</v>
+        <v>944.45699999999999</v>
       </c>
       <c r="B8" s="1">
-        <v>1201.646</v>
+        <v>1206.1579999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.93</v>
+        <v>-3.97</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>855.13699999999994</v>
+        <v>942.28700000000003</v>
       </c>
       <c r="B9" s="1">
-        <v>1109.153</v>
+        <v>1112.0640000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>854.72299999999996</v>
+        <v>940.51099999999997</v>
       </c>
       <c r="B10" s="1">
-        <v>1015.324</v>
+        <v>1016.948</v>
       </c>
       <c r="C10" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>854.76499999999999</v>
+        <v>939.65800000000002</v>
       </c>
       <c r="B11" s="1">
-        <v>922.11500000000001</v>
+        <v>924.05899999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>855.32600000000002</v>
+        <v>939.59199999999998</v>
       </c>
       <c r="B12" s="1">
-        <v>829.13400000000001</v>
+        <v>830.86</v>
       </c>
       <c r="C12" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>856.59400000000005</v>
+        <v>940.21299999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>735.08600000000001</v>
+        <v>736.54700000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>858.20500000000004</v>
+        <v>941.851</v>
       </c>
       <c r="B14" s="1">
-        <v>641.822</v>
+        <v>640.47199999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D14" s="1">
         <v>8.0500000000000007</v>
@@ -567,73 +567,73 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>860.89</v>
+        <v>943.67600000000004</v>
       </c>
       <c r="B15" s="1">
-        <v>546.33000000000004</v>
+        <v>546.49800000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>10.02</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>863.87400000000002</v>
+        <v>946.59100000000001</v>
       </c>
       <c r="B16" s="1">
-        <v>449.61500000000001</v>
+        <v>449.82400000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>867.50599999999997</v>
+        <v>950.077</v>
       </c>
       <c r="B17" s="1">
-        <v>350.279</v>
+        <v>351.76299999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>871.62400000000002</v>
+        <v>954.23299999999995</v>
       </c>
       <c r="B18" s="1">
-        <v>251.815</v>
+        <v>252.71100000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>16.07</v>
+        <v>16.02</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>836.24599999999998</v>
+        <v>921.74400000000003</v>
       </c>
       <c r="B19" s="1">
-        <v>1019.3680000000001</v>
+        <v>1019.15</v>
       </c>
       <c r="C19" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,268 +642,268 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>856.81100000000004</v>
+        <v>954.76099999999997</v>
       </c>
       <c r="B20" s="1">
-        <v>1777.925</v>
+        <v>1792.7629999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.07</v>
+        <v>-15.92</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>852</v>
+        <v>948.12699999999995</v>
       </c>
       <c r="B21" s="1">
-        <v>1672.24</v>
+        <v>1695.704</v>
       </c>
       <c r="C21" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D21" s="1">
-        <v>-13.95</v>
+        <v>-14.05</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>848.05</v>
+        <v>942.23</v>
       </c>
       <c r="B22" s="1">
-        <v>1575.3789999999999</v>
+        <v>1595.482</v>
       </c>
       <c r="C22" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.93</v>
+        <v>-12</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>844.69299999999998</v>
+        <v>937.00400000000002</v>
       </c>
       <c r="B23" s="1">
-        <v>1480.2239999999999</v>
+        <v>1497.596</v>
       </c>
       <c r="C23" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.93</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>842.13900000000001</v>
+        <v>932.47</v>
       </c>
       <c r="B24" s="1">
-        <v>1386.5329999999999</v>
+        <v>1402.145</v>
       </c>
       <c r="C24" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.93</v>
+        <v>-8.1</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>839.96100000000001</v>
+        <v>928.51300000000003</v>
       </c>
       <c r="B25" s="1">
-        <v>1293.94</v>
+        <v>1302.3710000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.93</v>
+        <v>-6</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>838.08500000000004</v>
+        <v>925.53200000000004</v>
       </c>
       <c r="B26" s="1">
-        <v>1201.1790000000001</v>
+        <v>1206.7349999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.93</v>
+        <v>-4</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>837.01700000000005</v>
+        <v>923.25400000000002</v>
       </c>
       <c r="B27" s="1">
-        <v>1109.155</v>
+        <v>1111.289</v>
       </c>
       <c r="C27" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>836.24099999999999</v>
+        <v>921.66</v>
       </c>
       <c r="B28" s="1">
-        <v>1015.7809999999999</v>
+        <v>1017.107</v>
       </c>
       <c r="C28" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>836.33699999999999</v>
+        <v>920.87699999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>922.71500000000003</v>
+        <v>924.04600000000005</v>
       </c>
       <c r="C29" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>836.96799999999996</v>
+        <v>920.64099999999996</v>
       </c>
       <c r="B30" s="1">
-        <v>829.49599999999998</v>
+        <v>830.97299999999996</v>
       </c>
       <c r="C30" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D30" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>838.23800000000006</v>
+        <v>921.43899999999996</v>
       </c>
       <c r="B31" s="1">
-        <v>735.45299999999997</v>
+        <v>736.85799999999995</v>
       </c>
       <c r="C31" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D31" s="1">
-        <v>6.07</v>
+        <v>6.03</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>840.11300000000006</v>
+        <v>922.85500000000002</v>
       </c>
       <c r="B32" s="1">
-        <v>642.59500000000003</v>
+        <v>642.21</v>
       </c>
       <c r="C32" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>842.19500000000005</v>
+        <v>924.68299999999999</v>
       </c>
       <c r="B33" s="1">
-        <v>547.70899999999995</v>
+        <v>546.38599999999997</v>
       </c>
       <c r="C33" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D33" s="1">
-        <v>10.02</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>845.09400000000005</v>
+        <v>927.43700000000001</v>
       </c>
       <c r="B34" s="1">
-        <v>450.166</v>
+        <v>451.21199999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D34" s="1">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>848.56200000000001</v>
+        <v>930.73299999999995</v>
       </c>
       <c r="B35" s="1">
-        <v>352.017</v>
+        <v>354.00400000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D35" s="1">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>852.51199999999994</v>
+        <v>934.56200000000001</v>
       </c>
       <c r="B36" s="1">
-        <v>253.94800000000001</v>
+        <v>255.38300000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="D36" s="1">
-        <v>16.07</v>
+        <v>16.03</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>819.48800000000006</v>
+        <v>904.43299999999999</v>
       </c>
       <c r="B37" s="1">
-        <v>1019.35</v>
+        <v>1019.401</v>
       </c>
       <c r="C37" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,238 +912,238 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>839.41</v>
+        <v>936.63099999999997</v>
       </c>
       <c r="B38" s="1">
-        <v>1777.1669999999999</v>
+        <v>1792.771</v>
       </c>
       <c r="C38" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.100000000000001</v>
+        <v>-15.95</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>834.63800000000003</v>
+        <v>930.48500000000001</v>
       </c>
       <c r="B39" s="1">
-        <v>1670.633</v>
+        <v>1695.617</v>
       </c>
       <c r="C39" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D39" s="1">
-        <v>-13.92</v>
+        <v>-14.05</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>830.83699999999999</v>
+        <v>924.43299999999999</v>
       </c>
       <c r="B40" s="1">
-        <v>1575.278</v>
+        <v>1594.096</v>
       </c>
       <c r="C40" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.95</v>
+        <v>-12</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>827.61500000000001</v>
+        <v>919.33299999999997</v>
       </c>
       <c r="B41" s="1">
-        <v>1479.567</v>
+        <v>1496.7840000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.92</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>825.024</v>
+        <v>915.077</v>
       </c>
       <c r="B42" s="1">
-        <v>1385.4639999999999</v>
+        <v>1401.502</v>
       </c>
       <c r="C42" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.92</v>
+        <v>-8.1</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>822.95500000000004</v>
+        <v>911.01300000000003</v>
       </c>
       <c r="B43" s="1">
-        <v>1292.796</v>
+        <v>1301.3430000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.92</v>
+        <v>-6</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>821.01800000000003</v>
+        <v>908.22299999999996</v>
       </c>
       <c r="B44" s="1">
-        <v>1201.0239999999999</v>
+        <v>1206.2529999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>820.12699999999995</v>
+        <v>905.84799999999996</v>
       </c>
       <c r="B45" s="1">
-        <v>1107.5609999999999</v>
+        <v>1111.221</v>
       </c>
       <c r="C45" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.92</v>
+        <v>-2</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>819.60900000000004</v>
+        <v>904.39200000000005</v>
       </c>
       <c r="B46" s="1">
-        <v>1015.369</v>
+        <v>1016.737</v>
       </c>
       <c r="C46" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D46" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>819.68100000000004</v>
+        <v>903.42200000000003</v>
       </c>
       <c r="B47" s="1">
-        <v>922.13499999999999</v>
+        <v>923.51800000000003</v>
       </c>
       <c r="C47" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>820.24</v>
+        <v>903.43499999999995</v>
       </c>
       <c r="B48" s="1">
-        <v>829.54899999999998</v>
+        <v>830.33399999999995</v>
       </c>
       <c r="C48" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D48" s="1">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>821.36099999999999</v>
+        <v>903.846</v>
       </c>
       <c r="B49" s="1">
-        <v>735.53700000000003</v>
+        <v>736.50599999999997</v>
       </c>
       <c r="C49" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D49" s="1">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>822.89400000000001</v>
+        <v>905.08500000000004</v>
       </c>
       <c r="B50" s="1">
-        <v>641.476</v>
+        <v>642.03499999999997</v>
       </c>
       <c r="C50" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>825.11300000000006</v>
+        <v>906.95500000000004</v>
       </c>
       <c r="B51" s="1">
-        <v>546.76400000000001</v>
+        <v>547.07600000000002</v>
       </c>
       <c r="C51" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D51" s="1">
-        <v>10.02</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>827.84199999999998</v>
+        <v>909.62099999999998</v>
       </c>
       <c r="B52" s="1">
-        <v>449.95299999999997</v>
+        <v>450.85199999999998</v>
       </c>
       <c r="C52" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D52" s="1">
-        <v>12.05</v>
+        <v>12.03</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>831.19399999999996</v>
+        <v>912.94600000000003</v>
       </c>
       <c r="B53" s="1">
-        <v>352.57400000000001</v>
+        <v>352.90800000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D53" s="1">
         <v>14.05</v>
@@ -1152,28 +1152,28 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>834.84199999999998</v>
+        <v>916.55</v>
       </c>
       <c r="B54" s="1">
-        <v>253.99799999999999</v>
+        <v>255.81200000000001</v>
       </c>
       <c r="C54" s="1">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="D54" s="1">
-        <v>16.05</v>
+        <v>16.03</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>803.93499999999995</v>
+        <v>888.32</v>
       </c>
       <c r="B55" s="1">
-        <v>1019.619</v>
+        <v>1019.26</v>
       </c>
       <c r="C55" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,163 +1182,163 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>823.125</v>
+        <v>919.83799999999997</v>
       </c>
       <c r="B56" s="1">
-        <v>1776.846</v>
+        <v>1791.778</v>
       </c>
       <c r="C56" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.100000000000001</v>
+        <v>-15.93</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>818.44399999999996</v>
+        <v>913.77800000000002</v>
       </c>
       <c r="B57" s="1">
-        <v>1670.4639999999999</v>
+        <v>1695.8130000000001</v>
       </c>
       <c r="C57" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D57" s="1">
-        <v>-13.95</v>
+        <v>-14.05</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>814.88199999999995</v>
+        <v>908.02499999999998</v>
       </c>
       <c r="B58" s="1">
-        <v>1574.0129999999999</v>
+        <v>1594.627</v>
       </c>
       <c r="C58" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.92</v>
+        <v>-12</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>811.726</v>
+        <v>902.79</v>
       </c>
       <c r="B59" s="1">
-        <v>1479.6389999999999</v>
+        <v>1497.58</v>
       </c>
       <c r="C59" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D59" s="1">
-        <v>-9.92</v>
+        <v>-10</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>809.25199999999995</v>
+        <v>898.53700000000003</v>
       </c>
       <c r="B60" s="1">
-        <v>1385.547</v>
+        <v>1400.2639999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.92</v>
+        <v>-8.08</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>806.97900000000004</v>
+        <v>894.88800000000003</v>
       </c>
       <c r="B61" s="1">
-        <v>1292.7650000000001</v>
+        <v>1302.0530000000001</v>
       </c>
       <c r="C61" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.92</v>
+        <v>-6</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>805.50400000000002</v>
+        <v>891.98900000000003</v>
       </c>
       <c r="B62" s="1">
-        <v>1200.646</v>
+        <v>1206.4580000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>804.553</v>
+        <v>889.83199999999999</v>
       </c>
       <c r="B63" s="1">
-        <v>1107.7650000000001</v>
+        <v>1113.1990000000001</v>
       </c>
       <c r="C63" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.92</v>
+        <v>-2</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>803.92399999999998</v>
+        <v>888.29</v>
       </c>
       <c r="B64" s="1">
-        <v>1015.36</v>
+        <v>1018.417</v>
       </c>
       <c r="C64" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>803.84900000000005</v>
+        <v>887.40300000000002</v>
       </c>
       <c r="B65" s="1">
-        <v>922.76800000000003</v>
+        <v>925.41800000000001</v>
       </c>
       <c r="C65" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>804.38199999999995</v>
+        <v>887.17899999999997</v>
       </c>
       <c r="B66" s="1">
-        <v>830.36099999999999</v>
+        <v>830.80399999999997</v>
       </c>
       <c r="C66" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D66" s="1">
         <v>4.05</v>
@@ -1347,28 +1347,28 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>805.54499999999996</v>
+        <v>887.57500000000005</v>
       </c>
       <c r="B67" s="1">
-        <v>736.62099999999998</v>
+        <v>738.06</v>
       </c>
       <c r="C67" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D67" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>807.12599999999998</v>
+        <v>888.85699999999997</v>
       </c>
       <c r="B68" s="1">
-        <v>642.69399999999996</v>
+        <v>642.47</v>
       </c>
       <c r="C68" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D68" s="1">
         <v>8.0500000000000007</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>809.29</v>
+        <v>890.70799999999997</v>
       </c>
       <c r="B69" s="1">
-        <v>548.03800000000001</v>
+        <v>548.21900000000005</v>
       </c>
       <c r="C69" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D69" s="1">
         <v>10.02</v>
@@ -1392,58 +1392,58 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>811.86699999999996</v>
+        <v>893.096</v>
       </c>
       <c r="B70" s="1">
-        <v>450.31299999999999</v>
+        <v>452.70800000000003</v>
       </c>
       <c r="C70" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D70" s="1">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>815.11400000000003</v>
+        <v>896.03599999999994</v>
       </c>
       <c r="B71" s="1">
-        <v>352.56099999999998</v>
+        <v>357.24799999999999</v>
       </c>
       <c r="C71" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D71" s="1">
-        <v>14.08</v>
+        <v>14.02</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>818.83</v>
+        <v>899.71100000000001</v>
       </c>
       <c r="B72" s="1">
-        <v>254.739</v>
+        <v>257.05200000000002</v>
       </c>
       <c r="C72" s="1">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="D72" s="1">
-        <v>16.05</v>
+        <v>16.02</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>789.26800000000003</v>
+        <v>873.18700000000001</v>
       </c>
       <c r="B73" s="1">
-        <v>1019.381</v>
+        <v>1019.168</v>
       </c>
       <c r="C73" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,193 +1452,193 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>807.97299999999996</v>
+        <v>904.26800000000003</v>
       </c>
       <c r="B74" s="1">
-        <v>1774.595</v>
+        <v>1790.653</v>
       </c>
       <c r="C74" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D74" s="1">
-        <v>-16.07</v>
+        <v>-15.95</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>803.53700000000003</v>
+        <v>898.36300000000006</v>
       </c>
       <c r="B75" s="1">
-        <v>1668.829</v>
+        <v>1693.76</v>
       </c>
       <c r="C75" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D75" s="1">
-        <v>-13.95</v>
+        <v>-14.03</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>799.98500000000001</v>
+        <v>892.67600000000004</v>
       </c>
       <c r="B76" s="1">
-        <v>1573.1420000000001</v>
+        <v>1594.537</v>
       </c>
       <c r="C76" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D76" s="1">
-        <v>-11.92</v>
+        <v>-12</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>796.99599999999998</v>
+        <v>887.57299999999998</v>
       </c>
       <c r="B77" s="1">
-        <v>1478.16</v>
+        <v>1496.7760000000001</v>
       </c>
       <c r="C77" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D77" s="1">
-        <v>-9.92</v>
+        <v>-10</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>794.37300000000005</v>
+        <v>883.45799999999997</v>
       </c>
       <c r="B78" s="1">
-        <v>1384.7049999999999</v>
+        <v>1400.202</v>
       </c>
       <c r="C78" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.95</v>
+        <v>-8.08</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>792.26</v>
+        <v>879.74400000000003</v>
       </c>
       <c r="B79" s="1">
-        <v>1291.249</v>
+        <v>1300.7809999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.92</v>
+        <v>-6</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>790.81399999999996</v>
+        <v>876.99</v>
       </c>
       <c r="B80" s="1">
-        <v>1199.192</v>
+        <v>1206.018</v>
       </c>
       <c r="C80" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.92</v>
+        <v>-3.98</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>789.92600000000004</v>
+        <v>874.75300000000004</v>
       </c>
       <c r="B81" s="1">
-        <v>1107.4870000000001</v>
+        <v>1112.3969999999999</v>
       </c>
       <c r="C81" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>789.22</v>
+        <v>873.15</v>
       </c>
       <c r="B82" s="1">
-        <v>1014.155</v>
+        <v>1017.968</v>
       </c>
       <c r="C82" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D82" s="1">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>789.25699999999995</v>
+        <v>872.42200000000003</v>
       </c>
       <c r="B83" s="1">
-        <v>922.61699999999996</v>
+        <v>924.92100000000005</v>
       </c>
       <c r="C83" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D83" s="1">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>789.68299999999999</v>
+        <v>872.20600000000002</v>
       </c>
       <c r="B84" s="1">
-        <v>827.87800000000004</v>
+        <v>830.75</v>
       </c>
       <c r="C84" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D84" s="1">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>790.91</v>
+        <v>872.60400000000004</v>
       </c>
       <c r="B85" s="1">
-        <v>736.69</v>
+        <v>738.303</v>
       </c>
       <c r="C85" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D85" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>792.53599999999994</v>
+        <v>873.77700000000004</v>
       </c>
       <c r="B86" s="1">
-        <v>642.86099999999999</v>
+        <v>642.77800000000002</v>
       </c>
       <c r="C86" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D86" s="1">
         <v>8.0500000000000007</v>
@@ -1647,43 +1647,43 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>794.47</v>
+        <v>875.43100000000004</v>
       </c>
       <c r="B87" s="1">
-        <v>548.08000000000004</v>
+        <v>548.88699999999994</v>
       </c>
       <c r="C87" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D87" s="1">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>797.08299999999997</v>
+        <v>877.86900000000003</v>
       </c>
       <c r="B88" s="1">
-        <v>450.35399999999998</v>
+        <v>453.06400000000002</v>
       </c>
       <c r="C88" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D88" s="1">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>800.077</v>
+        <v>880.88800000000003</v>
       </c>
       <c r="B89" s="1">
-        <v>352.63900000000001</v>
+        <v>355.887</v>
       </c>
       <c r="C89" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D89" s="1">
         <v>14.05</v>
@@ -1692,143 +1692,287 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>803.65599999999995</v>
+        <v>884.30799999999999</v>
       </c>
       <c r="B90" s="1">
-        <v>255.89599999999999</v>
+        <v>257.714</v>
       </c>
       <c r="C90" s="1">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="D90" s="1">
-        <v>16.05</v>
+        <v>16.02</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="A91" s="1">
+        <v>859.31299999999999</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1019.399</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="A92" s="1">
+        <v>889.76400000000001</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1789.8979999999999</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-15.95</v>
+      </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="A93" s="1">
+        <v>883.90200000000004</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1693.123</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-14.05</v>
+      </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="A94" s="1">
+        <v>878.39599999999996</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1592.34</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-12</v>
+      </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="A95" s="1">
+        <v>873.47900000000004</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1495.0229999999999</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-9.98</v>
+      </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="A96" s="1">
+        <v>869.44100000000003</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1399.277</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-8.08</v>
+      </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="A97" s="1">
+        <v>865.69600000000003</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1300.4359999999999</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-6</v>
+      </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="A98" s="1">
+        <v>862.99</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1205.2550000000001</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-3.98</v>
+      </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="A99" s="1">
+        <v>860.90499999999997</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1112.248</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-2</v>
+      </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="A100" s="1">
+        <v>859.33900000000006</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1017.742</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.02</v>
+      </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="A101" s="1">
+        <v>858.48199999999997</v>
+      </c>
+      <c r="B101" s="1">
+        <v>924.80200000000002</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2.02</v>
+      </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="A102" s="1">
+        <v>858.32</v>
+      </c>
+      <c r="B102" s="1">
+        <v>831.57</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4.0199999999999996</v>
+      </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="A103" s="1">
+        <v>858.63199999999995</v>
+      </c>
+      <c r="B103" s="1">
+        <v>738.298</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D103" s="1">
+        <v>6</v>
+      </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="A104" s="1">
+        <v>859.79200000000003</v>
+      </c>
+      <c r="B104" s="1">
+        <v>642.49400000000003</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D104" s="1">
+        <v>8.07</v>
+      </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="A105" s="1">
+        <v>861.39800000000002</v>
+      </c>
+      <c r="B105" s="1">
+        <v>550.26900000000001</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D105" s="1">
+        <v>10</v>
+      </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="A106" s="1">
+        <v>863.80100000000004</v>
+      </c>
+      <c r="B106" s="1">
+        <v>452.92399999999998</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D106" s="1">
+        <v>12.05</v>
+      </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="A107" s="1">
+        <v>866.55799999999999</v>
+      </c>
+      <c r="B107" s="1">
+        <v>356.90300000000002</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D107" s="1">
+        <v>14.02</v>
+      </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="A108" s="1">
+        <v>869.99</v>
+      </c>
+      <c r="B108" s="1">
+        <v>258.178</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2999.6</v>
+      </c>
+      <c r="D108" s="1">
+        <v>16.02</v>
+      </c>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">

--- a/cam2_validation.xlsx
+++ b/cam2_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A34E66-201E-4B8F-91C1-0BF3241DD7C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4CF13A-F88B-4610-B868-5A02F029440D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="3600" windowWidth="17717" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="4500" windowWidth="21446" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>940.52800000000002</v>
+        <v>888.27700000000004</v>
       </c>
       <c r="B1" s="1">
-        <v>1019.168</v>
+        <v>1019.395</v>
       </c>
       <c r="C1" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,253 +372,253 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>974.19399999999996</v>
+        <v>910.23500000000001</v>
       </c>
       <c r="B2" s="1">
-        <v>1793.377</v>
+        <v>1813.8789999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.93</v>
+        <v>-15.9</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>967.72199999999998</v>
+        <v>905.58</v>
       </c>
       <c r="B3" s="1">
-        <v>1697.279</v>
+        <v>1717.6320000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.02</v>
+        <v>-14.08</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>961.42200000000003</v>
+        <v>901.20100000000002</v>
       </c>
       <c r="B4" s="1">
-        <v>1597.1289999999999</v>
+        <v>1614.0889999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>956.20899999999995</v>
+        <v>897.20899999999995</v>
       </c>
       <c r="B5" s="1">
-        <v>1499.7429999999999</v>
+        <v>1512.635</v>
       </c>
       <c r="C5" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-10</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>951.48400000000004</v>
+        <v>894.07799999999997</v>
       </c>
       <c r="B6" s="1">
-        <v>1401.5150000000001</v>
+        <v>1412.0930000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-8.1</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>947.452</v>
+        <v>891.51400000000001</v>
       </c>
       <c r="B7" s="1">
-        <v>1301.2070000000001</v>
+        <v>1313.8630000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>944.45699999999999</v>
+        <v>889.80899999999997</v>
       </c>
       <c r="B8" s="1">
-        <v>1206.1579999999999</v>
+        <v>1216.155</v>
       </c>
       <c r="C8" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.97</v>
+        <v>-4.05</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>942.28700000000003</v>
+        <v>888.62300000000005</v>
       </c>
       <c r="B9" s="1">
-        <v>1112.0640000000001</v>
+        <v>1117.8920000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>940.51099999999997</v>
+        <v>888.30399999999997</v>
       </c>
       <c r="B10" s="1">
-        <v>1016.948</v>
+        <v>1019.7569999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>939.65800000000002</v>
+        <v>888.44399999999996</v>
       </c>
       <c r="B11" s="1">
-        <v>924.05899999999997</v>
+        <v>923.48</v>
       </c>
       <c r="C11" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0299999999999998</v>
+        <v>1.97</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>939.59199999999998</v>
+        <v>889.11099999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>830.86</v>
+        <v>826.94100000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>940.21299999999997</v>
+        <v>890.60400000000004</v>
       </c>
       <c r="B13" s="1">
-        <v>736.54700000000003</v>
+        <v>731.298</v>
       </c>
       <c r="C13" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>941.851</v>
+        <v>892.827</v>
       </c>
       <c r="B14" s="1">
-        <v>640.47199999999998</v>
+        <v>632.88099999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>943.67600000000004</v>
+        <v>895.57600000000002</v>
       </c>
       <c r="B15" s="1">
-        <v>546.49800000000005</v>
+        <v>537.279</v>
       </c>
       <c r="C15" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>946.59100000000001</v>
+        <v>899.02700000000004</v>
       </c>
       <c r="B16" s="1">
-        <v>449.82400000000001</v>
+        <v>437.07600000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>950.077</v>
+        <v>902.84900000000005</v>
       </c>
       <c r="B17" s="1">
-        <v>351.76299999999998</v>
+        <v>338.63400000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>954.23299999999995</v>
+        <v>907.02200000000005</v>
       </c>
       <c r="B18" s="1">
-        <v>252.71100000000001</v>
+        <v>237.63</v>
       </c>
       <c r="C18" s="1">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="D18" s="1">
         <v>16.02</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>921.74400000000003</v>
+        <v>869.07799999999997</v>
       </c>
       <c r="B19" s="1">
-        <v>1019.15</v>
+        <v>1019.463</v>
       </c>
       <c r="C19" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,268 +642,268 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>954.76099999999997</v>
+        <v>890.54100000000005</v>
       </c>
       <c r="B20" s="1">
-        <v>1792.7629999999999</v>
+        <v>1812.403</v>
       </c>
       <c r="C20" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.92</v>
+        <v>-15.9</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>948.12699999999995</v>
+        <v>886.11300000000006</v>
       </c>
       <c r="B21" s="1">
-        <v>1695.704</v>
+        <v>1716.2750000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.05</v>
+        <v>-14.08</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>942.23</v>
+        <v>881.60799999999995</v>
       </c>
       <c r="B22" s="1">
-        <v>1595.482</v>
+        <v>1612.644</v>
       </c>
       <c r="C22" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D22" s="1">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>937.00400000000002</v>
+        <v>877.971</v>
       </c>
       <c r="B23" s="1">
-        <v>1497.596</v>
+        <v>1511.5260000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>932.47</v>
+        <v>874.93600000000004</v>
       </c>
       <c r="B24" s="1">
-        <v>1402.145</v>
+        <v>1411.405</v>
       </c>
       <c r="C24" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D24" s="1">
-        <v>-8.1</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>928.51300000000003</v>
+        <v>872.52599999999995</v>
       </c>
       <c r="B25" s="1">
-        <v>1302.3710000000001</v>
+        <v>1312.6590000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D25" s="1">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>925.53200000000004</v>
+        <v>870.84</v>
       </c>
       <c r="B26" s="1">
-        <v>1206.7349999999999</v>
+        <v>1214.9269999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D26" s="1">
-        <v>-4</v>
+        <v>-4.05</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>923.25400000000002</v>
+        <v>869.81500000000005</v>
       </c>
       <c r="B27" s="1">
-        <v>1111.289</v>
+        <v>1117.444</v>
       </c>
       <c r="C27" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D27" s="1">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>921.66</v>
+        <v>869.06</v>
       </c>
       <c r="B28" s="1">
-        <v>1017.107</v>
+        <v>1019.467</v>
       </c>
       <c r="C28" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>920.87699999999995</v>
+        <v>869.25699999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>924.04600000000005</v>
+        <v>922.91499999999996</v>
       </c>
       <c r="C29" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>920.64099999999996</v>
+        <v>870.03700000000003</v>
       </c>
       <c r="B30" s="1">
-        <v>830.97299999999996</v>
+        <v>827.99199999999996</v>
       </c>
       <c r="C30" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D30" s="1">
-        <v>4.03</v>
+        <v>3.97</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>921.43899999999996</v>
+        <v>871.59</v>
       </c>
       <c r="B31" s="1">
-        <v>736.85799999999995</v>
+        <v>730.76800000000003</v>
       </c>
       <c r="C31" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D31" s="1">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>922.85500000000002</v>
+        <v>873.63699999999994</v>
       </c>
       <c r="B32" s="1">
-        <v>642.21</v>
+        <v>633.08100000000002</v>
       </c>
       <c r="C32" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.02</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>924.68299999999999</v>
+        <v>876.42600000000004</v>
       </c>
       <c r="B33" s="1">
-        <v>546.38599999999997</v>
+        <v>537.00199999999995</v>
       </c>
       <c r="C33" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D33" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>927.43700000000001</v>
+        <v>879.54300000000001</v>
       </c>
       <c r="B34" s="1">
-        <v>451.21199999999999</v>
+        <v>438.73700000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D34" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>930.73299999999995</v>
+        <v>883.06600000000003</v>
       </c>
       <c r="B35" s="1">
-        <v>354.00400000000002</v>
+        <v>338.99799999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D35" s="1">
-        <v>14.03</v>
+        <v>14.02</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>934.56200000000001</v>
+        <v>887.47900000000004</v>
       </c>
       <c r="B36" s="1">
-        <v>255.38300000000001</v>
+        <v>238.477</v>
       </c>
       <c r="C36" s="1">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="D36" s="1">
-        <v>16.03</v>
+        <v>16.02</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>904.43299999999999</v>
+        <v>851.87099999999998</v>
       </c>
       <c r="B37" s="1">
-        <v>1019.401</v>
+        <v>1019.591</v>
       </c>
       <c r="C37" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,268 +912,268 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>936.63099999999997</v>
+        <v>872.29200000000003</v>
       </c>
       <c r="B38" s="1">
-        <v>1792.771</v>
+        <v>1811.355</v>
       </c>
       <c r="C38" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.95</v>
+        <v>-15.9</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>930.48500000000001</v>
+        <v>867.92700000000002</v>
       </c>
       <c r="B39" s="1">
-        <v>1695.617</v>
+        <v>1715.732</v>
       </c>
       <c r="C39" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.05</v>
+        <v>-14.08</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>924.43299999999999</v>
+        <v>863.66399999999999</v>
       </c>
       <c r="B40" s="1">
-        <v>1594.096</v>
+        <v>1612.0989999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D40" s="1">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>919.33299999999997</v>
+        <v>860.20600000000002</v>
       </c>
       <c r="B41" s="1">
-        <v>1496.7840000000001</v>
+        <v>1510.94</v>
       </c>
       <c r="C41" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>915.077</v>
+        <v>857.38599999999997</v>
       </c>
       <c r="B42" s="1">
-        <v>1401.502</v>
+        <v>1410.893</v>
       </c>
       <c r="C42" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D42" s="1">
-        <v>-8.1</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>911.01300000000003</v>
+        <v>854.92499999999995</v>
       </c>
       <c r="B43" s="1">
-        <v>1301.3430000000001</v>
+        <v>1312.0730000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D43" s="1">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>908.22299999999996</v>
+        <v>853.279</v>
       </c>
       <c r="B44" s="1">
-        <v>1206.2529999999999</v>
+        <v>1215.049</v>
       </c>
       <c r="C44" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D44" s="1">
-        <v>-4</v>
+        <v>-4.05</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>905.84799999999996</v>
+        <v>852.00199999999995</v>
       </c>
       <c r="B45" s="1">
-        <v>1111.221</v>
+        <v>1117.0999999999999</v>
       </c>
       <c r="C45" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D45" s="1">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>904.39200000000005</v>
+        <v>851.851</v>
       </c>
       <c r="B46" s="1">
-        <v>1016.737</v>
+        <v>1019.759</v>
       </c>
       <c r="C46" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>903.42200000000003</v>
+        <v>851.92200000000003</v>
       </c>
       <c r="B47" s="1">
-        <v>923.51800000000003</v>
+        <v>923.21</v>
       </c>
       <c r="C47" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>903.43499999999995</v>
+        <v>852.69899999999996</v>
       </c>
       <c r="B48" s="1">
-        <v>830.33399999999995</v>
+        <v>828.24</v>
       </c>
       <c r="C48" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D48" s="1">
-        <v>4.03</v>
+        <v>3.97</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>903.846</v>
+        <v>854.00800000000004</v>
       </c>
       <c r="B49" s="1">
-        <v>736.50599999999997</v>
+        <v>731.16899999999998</v>
       </c>
       <c r="C49" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D49" s="1">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>905.08500000000004</v>
+        <v>856.04499999999996</v>
       </c>
       <c r="B50" s="1">
-        <v>642.03499999999997</v>
+        <v>633.80999999999995</v>
       </c>
       <c r="C50" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.02</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>906.95500000000004</v>
+        <v>858.48099999999999</v>
       </c>
       <c r="B51" s="1">
-        <v>547.07600000000002</v>
+        <v>537.70000000000005</v>
       </c>
       <c r="C51" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D51" s="1">
-        <v>10.029999999999999</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>909.62099999999998</v>
+        <v>861.69200000000001</v>
       </c>
       <c r="B52" s="1">
-        <v>450.85199999999998</v>
+        <v>439.84300000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D52" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>912.94600000000003</v>
+        <v>865.10699999999997</v>
       </c>
       <c r="B53" s="1">
-        <v>352.90800000000002</v>
+        <v>340.07100000000003</v>
       </c>
       <c r="C53" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D53" s="1">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>916.55</v>
+        <v>869.28300000000002</v>
       </c>
       <c r="B54" s="1">
-        <v>255.81200000000001</v>
+        <v>240.33</v>
       </c>
       <c r="C54" s="1">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="D54" s="1">
-        <v>16.03</v>
+        <v>16.02</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>888.32</v>
+        <v>835.452</v>
       </c>
       <c r="B55" s="1">
-        <v>1019.26</v>
+        <v>1019.4640000000001</v>
       </c>
       <c r="C55" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,148 +1182,148 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>919.83799999999997</v>
+        <v>855.41200000000003</v>
       </c>
       <c r="B56" s="1">
-        <v>1791.778</v>
+        <v>1810.912</v>
       </c>
       <c r="C56" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.93</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>913.77800000000002</v>
+        <v>851.19100000000003</v>
       </c>
       <c r="B57" s="1">
-        <v>1695.8130000000001</v>
+        <v>1715.4490000000001</v>
       </c>
       <c r="C57" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.05</v>
+        <v>-14.08</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>908.02499999999998</v>
+        <v>847.15099999999995</v>
       </c>
       <c r="B58" s="1">
-        <v>1594.627</v>
+        <v>1611.537</v>
       </c>
       <c r="C58" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D58" s="1">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>902.79</v>
+        <v>843.57100000000003</v>
       </c>
       <c r="B59" s="1">
-        <v>1497.58</v>
+        <v>1510.6949999999999</v>
       </c>
       <c r="C59" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D59" s="1">
-        <v>-10</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>898.53700000000003</v>
+        <v>840.63099999999997</v>
       </c>
       <c r="B60" s="1">
-        <v>1400.2639999999999</v>
+        <v>1411.1289999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D60" s="1">
-        <v>-8.08</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>894.88800000000003</v>
+        <v>838.55700000000002</v>
       </c>
       <c r="B61" s="1">
-        <v>1302.0530000000001</v>
+        <v>1312.2449999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D61" s="1">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>891.98900000000003</v>
+        <v>836.99800000000005</v>
       </c>
       <c r="B62" s="1">
-        <v>1206.4580000000001</v>
+        <v>1215.104</v>
       </c>
       <c r="C62" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.98</v>
+        <v>-4.05</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>889.83199999999999</v>
+        <v>835.99</v>
       </c>
       <c r="B63" s="1">
-        <v>1113.1990000000001</v>
+        <v>1117.56</v>
       </c>
       <c r="C63" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D63" s="1">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>888.29</v>
+        <v>835.48599999999999</v>
       </c>
       <c r="B64" s="1">
-        <v>1018.417</v>
+        <v>1019.7</v>
       </c>
       <c r="C64" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D64" s="1">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>887.40300000000002</v>
+        <v>835.81799999999998</v>
       </c>
       <c r="B65" s="1">
-        <v>925.41800000000001</v>
+        <v>923.89700000000005</v>
       </c>
       <c r="C65" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
@@ -1332,88 +1332,88 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>887.17899999999997</v>
+        <v>836.19</v>
       </c>
       <c r="B66" s="1">
-        <v>830.80399999999997</v>
+        <v>828.721</v>
       </c>
       <c r="C66" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D66" s="1">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>887.57500000000005</v>
+        <v>837.91899999999998</v>
       </c>
       <c r="B67" s="1">
-        <v>738.06</v>
+        <v>731.66300000000001</v>
       </c>
       <c r="C67" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>888.85699999999997</v>
+        <v>839.61</v>
       </c>
       <c r="B68" s="1">
-        <v>642.47</v>
+        <v>634.60599999999999</v>
       </c>
       <c r="C68" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>890.70799999999997</v>
+        <v>842.00699999999995</v>
       </c>
       <c r="B69" s="1">
-        <v>548.21900000000005</v>
+        <v>538.80999999999995</v>
       </c>
       <c r="C69" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D69" s="1">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>893.096</v>
+        <v>845.07600000000002</v>
       </c>
       <c r="B70" s="1">
-        <v>452.70800000000003</v>
+        <v>440.72899999999998</v>
       </c>
       <c r="C70" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D70" s="1">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>896.03599999999994</v>
+        <v>848.46799999999996</v>
       </c>
       <c r="B71" s="1">
-        <v>357.24799999999999</v>
+        <v>341.74</v>
       </c>
       <c r="C71" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D71" s="1">
         <v>14.02</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>899.71100000000001</v>
+        <v>852.39400000000001</v>
       </c>
       <c r="B72" s="1">
-        <v>257.05200000000002</v>
+        <v>242.25299999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="D72" s="1">
         <v>16.02</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>873.18700000000001</v>
+        <v>820.43399999999997</v>
       </c>
       <c r="B73" s="1">
-        <v>1019.168</v>
+        <v>1019.403</v>
       </c>
       <c r="C73" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,268 +1452,268 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>904.26800000000003</v>
+        <v>839.548</v>
       </c>
       <c r="B74" s="1">
-        <v>1790.653</v>
+        <v>1810.1759999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.95</v>
+        <v>-15.92</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>898.36300000000006</v>
+        <v>835.56799999999998</v>
       </c>
       <c r="B75" s="1">
-        <v>1693.76</v>
+        <v>1714.0039999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.03</v>
+        <v>-14.07</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>892.67600000000004</v>
+        <v>831.61199999999997</v>
       </c>
       <c r="B76" s="1">
-        <v>1594.537</v>
+        <v>1610.4849999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D76" s="1">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>887.57299999999998</v>
+        <v>828.43</v>
       </c>
       <c r="B77" s="1">
-        <v>1496.7760000000001</v>
+        <v>1509.998</v>
       </c>
       <c r="C77" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D77" s="1">
-        <v>-10</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>883.45799999999997</v>
+        <v>825.56299999999999</v>
       </c>
       <c r="B78" s="1">
-        <v>1400.202</v>
+        <v>1410.3019999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D78" s="1">
-        <v>-8.08</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>879.74400000000003</v>
+        <v>823.33900000000006</v>
       </c>
       <c r="B79" s="1">
-        <v>1300.7809999999999</v>
+        <v>1311.614</v>
       </c>
       <c r="C79" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D79" s="1">
-        <v>-6</v>
+        <v>-6.05</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>876.99</v>
+        <v>821.96500000000003</v>
       </c>
       <c r="B80" s="1">
-        <v>1206.018</v>
+        <v>1213.9870000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.98</v>
+        <v>-4.05</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>874.75300000000004</v>
+        <v>820.94299999999998</v>
       </c>
       <c r="B81" s="1">
-        <v>1112.3969999999999</v>
+        <v>1116.374</v>
       </c>
       <c r="C81" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D81" s="1">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>873.15</v>
+        <v>820.42399999999998</v>
       </c>
       <c r="B82" s="1">
-        <v>1017.968</v>
+        <v>1018.7809999999999</v>
       </c>
       <c r="C82" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D82" s="1">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>872.42200000000003</v>
+        <v>820.56600000000003</v>
       </c>
       <c r="B83" s="1">
-        <v>924.92100000000005</v>
+        <v>922.95899999999995</v>
       </c>
       <c r="C83" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>872.20600000000002</v>
+        <v>821.10599999999999</v>
       </c>
       <c r="B84" s="1">
-        <v>830.75</v>
+        <v>826.79300000000001</v>
       </c>
       <c r="C84" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D84" s="1">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>872.60400000000004</v>
+        <v>822.62099999999998</v>
       </c>
       <c r="B85" s="1">
-        <v>738.303</v>
+        <v>731.27700000000004</v>
       </c>
       <c r="C85" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D85" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>873.77700000000004</v>
+        <v>824.32799999999997</v>
       </c>
       <c r="B86" s="1">
-        <v>642.77800000000002</v>
+        <v>634.27499999999998</v>
       </c>
       <c r="C86" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>875.43100000000004</v>
+        <v>826.72</v>
       </c>
       <c r="B87" s="1">
-        <v>548.88699999999994</v>
+        <v>538.96299999999997</v>
       </c>
       <c r="C87" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D87" s="1">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>877.86900000000003</v>
+        <v>829.77599999999995</v>
       </c>
       <c r="B88" s="1">
-        <v>453.06400000000002</v>
+        <v>441.30900000000003</v>
       </c>
       <c r="C88" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D88" s="1">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>880.88800000000003</v>
+        <v>832.23900000000003</v>
       </c>
       <c r="B89" s="1">
-        <v>355.887</v>
+        <v>361.53399999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D89" s="1">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>884.30799999999999</v>
+        <v>836.702</v>
       </c>
       <c r="B90" s="1">
-        <v>257.714</v>
+        <v>242.36699999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="D90" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>859.31299999999999</v>
+        <v>806.36</v>
       </c>
       <c r="B91" s="1">
-        <v>1019.399</v>
+        <v>1019.491</v>
       </c>
       <c r="C91" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -1722,256 +1722,256 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>889.76400000000001</v>
+        <v>825.23</v>
       </c>
       <c r="B92" s="1">
-        <v>1789.8979999999999</v>
+        <v>1810.146</v>
       </c>
       <c r="C92" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D92" s="1">
-        <v>-15.95</v>
+        <v>-15.92</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>883.90200000000004</v>
+        <v>821.00599999999997</v>
       </c>
       <c r="B93" s="1">
-        <v>1693.123</v>
+        <v>1713.644</v>
       </c>
       <c r="C93" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D93" s="1">
-        <v>-14.05</v>
+        <v>-14.07</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>878.39599999999996</v>
+        <v>817.16399999999999</v>
       </c>
       <c r="B94" s="1">
-        <v>1592.34</v>
+        <v>1609.8989999999999</v>
       </c>
       <c r="C94" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D94" s="1">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>873.47900000000004</v>
+        <v>813.93899999999996</v>
       </c>
       <c r="B95" s="1">
-        <v>1495.0229999999999</v>
+        <v>1509.3910000000001</v>
       </c>
       <c r="C95" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D95" s="1">
-        <v>-9.98</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>869.44100000000003</v>
+        <v>811.4</v>
       </c>
       <c r="B96" s="1">
-        <v>1399.277</v>
+        <v>1410.2049999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D96" s="1">
-        <v>-8.08</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>865.69600000000003</v>
+        <v>809.11699999999996</v>
       </c>
       <c r="B97" s="1">
-        <v>1300.4359999999999</v>
+        <v>1311.5</v>
       </c>
       <c r="C97" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D97" s="1">
-        <v>-6</v>
+        <v>-6.05</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>862.99</v>
+        <v>807.91600000000005</v>
       </c>
       <c r="B98" s="1">
-        <v>1205.2550000000001</v>
+        <v>1213.9449999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D98" s="1">
-        <v>-3.98</v>
+        <v>-4.05</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>860.90499999999997</v>
+        <v>806.91300000000001</v>
       </c>
       <c r="B99" s="1">
-        <v>1112.248</v>
+        <v>1116.7090000000001</v>
       </c>
       <c r="C99" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D99" s="1">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>859.33900000000006</v>
+        <v>806.41200000000003</v>
       </c>
       <c r="B100" s="1">
-        <v>1017.742</v>
+        <v>1018.853</v>
       </c>
       <c r="C100" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D100" s="1">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>858.48199999999997</v>
+        <v>806.53700000000003</v>
       </c>
       <c r="B101" s="1">
-        <v>924.80200000000002</v>
+        <v>923.39700000000005</v>
       </c>
       <c r="C101" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D101" s="1">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>858.32</v>
+        <v>807.1</v>
       </c>
       <c r="B102" s="1">
-        <v>831.57</v>
+        <v>827.096</v>
       </c>
       <c r="C102" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D102" s="1">
-        <v>4.0199999999999996</v>
+        <v>4</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>858.63199999999995</v>
+        <v>808.58699999999999</v>
       </c>
       <c r="B103" s="1">
-        <v>738.298</v>
+        <v>731.85500000000002</v>
       </c>
       <c r="C103" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D103" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>859.79200000000003</v>
+        <v>810.04200000000003</v>
       </c>
       <c r="B104" s="1">
-        <v>642.49400000000003</v>
+        <v>634.98199999999997</v>
       </c>
       <c r="C104" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D104" s="1">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>861.39800000000002</v>
+        <v>812.62199999999996</v>
       </c>
       <c r="B105" s="1">
-        <v>550.26900000000001</v>
+        <v>537.95399999999995</v>
       </c>
       <c r="C105" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D105" s="1">
-        <v>10</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>863.80100000000004</v>
+        <v>815.14099999999996</v>
       </c>
       <c r="B106" s="1">
-        <v>452.92399999999998</v>
+        <v>441.363</v>
       </c>
       <c r="C106" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D106" s="1">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>866.55799999999999</v>
+        <v>818.55799999999999</v>
       </c>
       <c r="B107" s="1">
-        <v>356.90300000000002</v>
+        <v>342.59199999999998</v>
       </c>
       <c r="C107" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D107" s="1">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>869.99</v>
+        <v>822.15899999999999</v>
       </c>
       <c r="B108" s="1">
-        <v>258.178</v>
+        <v>243.22200000000001</v>
       </c>
       <c r="C108" s="1">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="D108" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1"/>
     </row>
